--- a/Project 1/Product Backlog.xlsx
+++ b/Project 1/Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog - Meeting 1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,72 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Dan Penny</author>
+  </authors>
+  <commentList>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Dan Penny:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Update Bus Value and Effort and ROI for all values</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Dan Penny</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Dan Penny:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Create taskss breakdown for 4 stories with top ROI </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>As a hotel owner I want a payment details portal so that I can assist my customers</t>
   </si>
@@ -169,19 +233,51 @@
   </si>
   <si>
     <t>As a customer I want to have member booking so that I do not have to remember my contact info</t>
+  </si>
+  <si>
+    <t>As a customer I want to have member booking so that I can get special discounts off my booking</t>
+  </si>
+  <si>
+    <t>As a payment provideer I want a payment API that can hamdle different tax rates</t>
+  </si>
+  <si>
+    <t>As an owner I want to see what my customers are looking at so that I can provide customer specific offers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an owner I want to review/feedback page visible by owner so that I can improve customer satisfaction </t>
+  </si>
+  <si>
+    <t>As a customer I want to get alerts on bookings and new deals so that I can know about deals</t>
+  </si>
+  <si>
+    <t>As an owner I want to support A/B testing so that I can optimize ad placement for revenue</t>
+  </si>
+  <si>
+    <t>As a owner I want to support loyality points to that customers can redeem for a deal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -228,8 +324,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:B27" totalsRowShown="0">
-  <autoFilter ref="A11:B27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:B26" totalsRowShown="0">
+  <autoFilter ref="A11:B26"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Tasks"/>
     <tableColumn id="2" name="Effort"/>
@@ -605,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A10" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,6 +736,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
@@ -650,49 +751,55 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -700,7 +807,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -708,55 +815,44 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -769,11 +865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D18" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,25 +966,66 @@
         <v>1.8</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Project 1/Product Backlog.xlsx
+++ b/Project 1/Product Backlog.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog - Meeting 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog 1" sheetId="2" r:id="rId2"/>
     <sheet name="Product Backlog - Meeting 2" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint Backlog 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Team Members" sheetId="7" r:id="rId5"/>
+    <sheet name="Sprint Backlog - Meeting 3" sheetId="8" r:id="rId5"/>
+    <sheet name="Sprint BackLog 3" sheetId="9" r:id="rId6"/>
+    <sheet name="Team Members" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -95,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>As a hotel owner I want a payment details portal so that I can assist my customers</t>
   </si>
@@ -254,6 +256,30 @@
   </si>
   <si>
     <t>As a owner I want to support loyality points to that customers can redeem for a deal</t>
+  </si>
+  <si>
+    <t>As a customer I want to see my pervious bookings so that I can see what I paid ( compare prices)</t>
+  </si>
+  <si>
+    <t>As a customer I want to get an email notification of payment so that I can have proof of payment</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want to see the resurant menu so that customers will know what food options there are</t>
+  </si>
+  <si>
+    <t>As a customer I want to have an option to book a meeting hall so that I can online book an event</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want a special role so that I can have different access for different users ( admin/users)</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want to implement a live chat for employees so that I can assist my customers in real time</t>
+  </si>
+  <si>
+    <t>As a customer I want to schedue an airport pickup so that I be picked up by the hotel airport shuttle</t>
+  </si>
+  <si>
+    <t>As a customer I want to re-schedue an airport pickup so that I be picked up by the hotel airport shuttle</t>
   </si>
 </sst>
 </file>
@@ -869,7 +895,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="B2:D18"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1016,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1030,6 +1056,177 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="97" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>

--- a/Project 1/Product Backlog.xlsx
+++ b/Project 1/Product Backlog.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog - Meeting 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog 1" sheetId="2" r:id="rId2"/>
     <sheet name="Product Backlog - Meeting 2" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint Backlog 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sprint Backlog - Meeting 3" sheetId="8" r:id="rId5"/>
+    <sheet name="Product Backlog - Meeting 3" sheetId="8" r:id="rId5"/>
     <sheet name="Sprint BackLog 3" sheetId="9" r:id="rId6"/>
-    <sheet name="Team Members" sheetId="7" r:id="rId7"/>
+    <sheet name="Product Backlog - Meeting 4" sheetId="10" r:id="rId7"/>
+    <sheet name="Retro" sheetId="11" r:id="rId8"/>
+    <sheet name="Team Members" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -97,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
   <si>
     <t>As a hotel owner I want a payment details portal so that I can assist my customers</t>
   </si>
@@ -280,13 +282,43 @@
   </si>
   <si>
     <t>As a customer I want to re-schedue an airport pickup so that I be picked up by the hotel airport shuttle</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want a search option based on dates so that customer can see room availibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a hotel owner I want a to provide the customer with a flexible refund process so that they can get instant refund in terms of points  </t>
+  </si>
+  <si>
+    <t>As a hotel owner I want my website to have B2B so that I connect to travel agents to offer them discouted rates</t>
+  </si>
+  <si>
+    <t>As a customer I want events tab on the website so that I can get information on ongoing and scheduled evernts</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want to provide a complementary option for the first 5% of customers(per day) so that I can attract more customers</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want  a user portal so that customers can book activities that hotels offer at the spa</t>
+  </si>
+  <si>
+    <t>As a customer I want to be able to login using social media so that they have easy access</t>
+  </si>
+  <si>
+    <t>&lt;Member1&gt;</t>
+  </si>
+  <si>
+    <t>Worked</t>
+  </si>
+  <si>
+    <t>Did not work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,6 +336,29 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -329,14 +384,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1059,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -1228,6 +1288,307 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="88.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
